--- a/DataDrivenFramework/target/test-classes/properties/testdata.xlsx
+++ b/DataDrivenFramework/target/test-classes/properties/testdata.xlsx
@@ -12,12 +12,11 @@
     <sheet name="custAccount" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:P26"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>username</t>
   </si>
@@ -434,10 +433,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,6 +457,14 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
     </row>

--- a/DataDrivenFramework/target/test-classes/properties/testdata.xlsx
+++ b/DataDrivenFramework/target/test-classes/properties/testdata.xlsx
@@ -1,39 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="16770" windowHeight="8385" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14190" windowHeight="6075"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="LoginTest" sheetId="1" r:id="rId2"/>
-    <sheet name="custAccount" sheetId="3" r:id="rId3"/>
+    <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
-    <t>username</t>
+    <t>UserName</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>TCID</t>
-  </si>
-  <si>
-    <t>Runmode</t>
-  </si>
-  <si>
-    <t>LoginTest</t>
-  </si>
-  <si>
-    <t>Y</t>
+    <t>Passworddemo</t>
   </si>
   <si>
     <t>demo</t>
@@ -41,36 +29,15 @@
   <si>
     <t>demo77</t>
   </si>
-  <si>
-    <t>AccountName</t>
-  </si>
-  <si>
-    <t>sri</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -93,20 +60,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -402,46 +366,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E6" sqref="E5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -453,55 +386,46 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="smuvw77@gmail.com"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>